--- a/results/vfsdfds/SetsDetail.xlsx
+++ b/results/vfsdfds/SetsDetail.xlsx
@@ -40,166 +40,166 @@
     <t>AnsD</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
-    <t>C</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>D</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>36</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -628,184 +628,184 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -813,86 +813,86 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -900,257 +900,257 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -1161,260 +1161,260 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1422,57 +1422,57 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -1480,228 +1480,228 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
         <v>49</v>
       </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
@@ -1712,86 +1712,86 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" t="s">
-        <v>41</v>
-      </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
         <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" t="s">
-        <v>31</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -1799,231 +1799,231 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>10</v>
@@ -2031,31 +2031,31 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
